--- a/image/riskassessment.xlsx
+++ b/image/riskassessment.xlsx
@@ -975,46 +975,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.29296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.44921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.30078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="38.484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="104.4453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="38.68359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="105.06640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.9921875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/riskassessment.xlsx
+++ b/image/riskassessment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="262">
   <si>
     <t>Path</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -648,10 +648,6 @@
   </si>
   <si>
     <t>RiskAssessment.prediction.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -975,46 +971,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.6953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.30078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="38.484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.29296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="38.44921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="105.06640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="37.9921875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="104.4453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="38.68359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3874,13 +3870,13 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3931,7 +3927,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3952,7 +3948,7 @@
         <v>44</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>44</v>
@@ -3963,7 +3959,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3992,7 +3988,7 @@
         <v>98</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>100</v>
@@ -4045,7 +4041,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4066,7 +4062,7 @@
         <v>44</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>44</v>
@@ -4077,11 +4073,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4103,10 +4099,10 @@
         <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>100</v>
@@ -4161,7 +4157,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4193,7 +4189,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4219,10 +4215,10 @@
         <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4252,7 +4248,7 @@
         <v>137</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Y29" t="s" s="2">
         <v>44</v>
@@ -4273,7 +4269,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4294,10 +4290,10 @@
         <v>44</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>44</v>
@@ -4305,7 +4301,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4328,16 +4324,16 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4387,7 +4383,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4399,19 +4395,19 @@
         <v>44</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>44</v>
@@ -4419,7 +4415,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4445,10 +4441,10 @@
         <v>133</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4478,11 +4474,11 @@
         <v>137</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>44</v>
       </c>
@@ -4499,7 +4495,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4531,7 +4527,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4554,17 +4550,17 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -4613,7 +4609,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4634,7 +4630,7 @@
         <v>44</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>44</v>
@@ -4645,7 +4641,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4668,16 +4664,16 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4727,7 +4723,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4748,7 +4744,7 @@
         <v>44</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>44</v>
@@ -4759,7 +4755,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4782,13 +4778,13 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4839,7 +4835,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -4860,10 +4856,10 @@
         <v>44</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>44</v>
@@ -4871,7 +4867,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4894,17 +4890,17 @@
         <v>44</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
@@ -4953,7 +4949,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -4974,7 +4970,7 @@
         <v>44</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>44</v>
@@ -4985,7 +4981,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5008,13 +5004,13 @@
         <v>44</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5065,7 +5061,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5080,7 +5076,7 @@
         <v>44</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>44</v>
